--- a/data/TC001.xlsx
+++ b/data/TC001.xlsx
@@ -27,13 +27,13 @@
     <t>Verify Username</t>
   </si>
   <si>
-    <t>karim@testleaf.com</t>
-  </si>
-  <si>
-    <t>Karim</t>
-  </si>
-  <si>
     <t>tester</t>
+  </si>
+  <si>
+    <t>Gopi</t>
+  </si>
+  <si>
+    <t>gopi@testleaf.com</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -411,10 +411,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
